--- a/BY.X BOUTIQUE五月订单.xlsx
+++ b/BY.X BOUTIQUE五月订单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6844F9-8807-40E6-9010-328DCA5A859A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF81E92-82E9-4221-B12C-9C737C45382E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="100帮" sheetId="4" r:id="rId1"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="135">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -863,6 +863,9 @@
   <si>
     <t>总：</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY.X BOUTIQUE 月统计.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,6 +1896,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2792,10 +2798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7FBE1-8ECA-46E5-9F0F-953899B69DB4}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3136,7 @@
       <c r="H11" s="75"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C2:C18)</f>
         <v>39</v>
@@ -3149,6 +3155,11 @@
       <c r="K19" s="59">
         <f>H19-L3</f>
         <v>1044.1099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="139" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3163,12 +3174,13 @@
     <hyperlink ref="A8" location="etc!B13" display="etc!B13" xr:uid="{C1C225CB-1B0F-4715-A848-F316CC0BCC3D}"/>
     <hyperlink ref="A9" location="'FDU 已下单'!B34" display="'FDU 已下单'!B34" xr:uid="{DFD8EAAE-03D0-4D68-BC41-13B195ADAF9B}"/>
     <hyperlink ref="A10" location="'100帮 已下单'!B48" display="'100帮 已下单'!B48" xr:uid="{0A9C2834-BD94-4F5B-A801-CA425A8DD800}"/>
+    <hyperlink ref="L21" r:id="rId1" xr:uid="{F618019D-EE81-4C53-942B-C1D19993C9C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3177,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDAC304-3998-4D5B-9867-658A3579CE90}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -4422,7 +4434,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -5119,7 +5131,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
